--- a/doc/190625_scRNAseq_info.xlsx
+++ b/doc/190625_scRNAseq_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yah2014/Dropbox/Public/Olivier/Projects/scRNAseq-BladderCancer/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0390A1EE-9C82-1940-9880-553577BC9A09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E4742E-DEBE-0F4D-A75B-6879DF4EA105}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40320" yWindow="-4240" windowWidth="27620" windowHeight="16480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34780" yWindow="-4240" windowWidth="27620" windowHeight="16480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Single cell 5'DE RNAseq  " sheetId="2" r:id="rId1"/>
@@ -910,7 +910,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>

--- a/doc/190625_scRNAseq_info.xlsx
+++ b/doc/190625_scRNAseq_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yah2014/Dropbox/Public/Olivier/Projects/scRNAseq-BladderCancer/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E4742E-DEBE-0F4D-A75B-6879DF4EA105}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A467FB-F417-AE4D-9E6D-16E48C9D808D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34780" yWindow="-4240" windowWidth="27620" windowHeight="16480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,12 +60,6 @@
     <t>Human</t>
   </si>
   <si>
-    <t>Mouse CD45-negative</t>
-  </si>
-  <si>
-    <t>Mouse CD45-positive</t>
-  </si>
-  <si>
     <t>Human CD45-negative</t>
   </si>
   <si>
@@ -133,6 +127,12 @@
   </si>
   <si>
     <t>4950P</t>
+  </si>
+  <si>
+    <t>CD45-negative</t>
+  </si>
+  <si>
+    <t>CD45-positive</t>
   </si>
 </sst>
 </file>
@@ -910,7 +910,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C9" sqref="C9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -929,16 +929,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>2</v>
@@ -953,18 +953,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="18">
         <v>357</v>
@@ -982,18 +982,18 @@
         <v>8</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="18">
         <v>359</v>
@@ -1011,7 +1011,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1019,13 +1019,13 @@
     </row>
     <row r="4" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="17">
         <v>4950</v>
@@ -1040,21 +1040,21 @@
         <v>5</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>12</v>
       </c>
       <c r="D5" s="17">
         <v>4950</v>
@@ -1069,27 +1069,27 @@
         <v>5</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" s="19">
         <v>43430</v>
@@ -1098,21 +1098,21 @@
         <v>5</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D7" s="17">
         <v>8524</v>
@@ -1125,21 +1125,21 @@
         <v>5</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D8" s="17">
         <v>8524</v>
@@ -1152,21 +1152,21 @@
         <v>5</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D9" s="17">
         <v>8525</v>
@@ -1179,21 +1179,21 @@
         <v>5</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D10" s="17">
         <v>8525</v>
@@ -1206,10 +1206,10 @@
         <v>5</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
